--- a/defect.xlsx
+++ b/defect.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11835"/>
+    <workbookView windowWidth="28800" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$281</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Defect</t>
   </si>
@@ -25,24 +22,138 @@
     <t>N° image</t>
   </si>
   <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1432</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>1547</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>1888</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>2272</t>
+  </si>
+  <si>
+    <t>2433</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>1003</t>
-  </si>
-  <si>
     <t>1007</t>
   </si>
   <si>
     <t>1008</t>
   </si>
   <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
     <t>1014</t>
   </si>
   <si>
@@ -55,9 +166,6 @@
     <t>1017</t>
   </si>
   <si>
-    <t>1018</t>
-  </si>
-  <si>
     <t>1020</t>
   </si>
   <si>
@@ -70,97 +178,205 @@
     <t>1033</t>
   </si>
   <si>
-    <t>1035</t>
-  </si>
-  <si>
     <t>1037</t>
   </si>
   <si>
     <t>1043</t>
   </si>
   <si>
-    <t>1046</t>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1132</t>
   </si>
   <si>
     <t>1049</t>
   </si>
   <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
     <t>1070</t>
   </si>
   <si>
-    <t>1084</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1134</t>
-  </si>
-  <si>
-    <t>1153</t>
-  </si>
-  <si>
-    <t>1192</t>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>1338</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1689</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>1885</t>
+  </si>
+  <si>
+    <t>1896</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2122</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>2389</t>
+  </si>
+  <si>
+    <t>2468</t>
   </si>
   <si>
     <t>1207</t>
   </si>
   <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>1254</t>
-  </si>
-  <si>
-    <t>1264</t>
-  </si>
-  <si>
-    <t>1265</t>
-  </si>
-  <si>
-    <t>1298</t>
-  </si>
-  <si>
-    <t>1307</t>
-  </si>
-  <si>
-    <t>1338</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>1555</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>1666</t>
-  </si>
-  <si>
-    <t>1689</t>
-  </si>
-  <si>
-    <t>1774</t>
-  </si>
-  <si>
-    <t>1839</t>
-  </si>
-  <si>
-    <t>1844</t>
+    <t>1892</t>
   </si>
 </sst>
 </file>
@@ -168,19 +384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,9 +406,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,66 +520,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -291,25 +530,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,20 +549,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -350,85 +559,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,97 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,21 +768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -588,32 +782,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +802,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -644,6 +827,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,142 +870,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,20 +1015,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -1161,389 +1364,966 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4">
-        <v>4</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4">
-        <v>4</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4">
-        <v>4</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="4">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1180</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B47">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/defect.xlsx
+++ b/defect.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$121</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -383,11 +386,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,000_);[Red]\(#,000\)"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -406,16 +410,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,8 +434,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,46 +472,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,17 +501,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,6 +531,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,20 +553,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -559,6 +563,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,37 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,133 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,11 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,7 +791,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,21 +812,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -831,17 +826,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,11 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,152 +874,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1027,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,7 +1354,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A1" sqref="A$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -2287,7 +2294,7 @@
       <c r="A117" s="1">
         <v>4</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2324,6 +2331,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B121">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
